--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 6 (33, 49, 46, 37, 41)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(33, 49, 46, 37, 41)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 6 (33, 49, 46, 37, 41)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(33, 49, 46, 37, 41)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7112874236306966</v>
+        <v>0.710906360849698</v>
       </c>
       <c r="E2">
-        <v>0.7112874236306966</v>
+        <v>0.710906360849698</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.001370155169880393</v>
+        <v>0.001364785198323819</v>
       </c>
       <c r="E3">
-        <v>0.001370155169880393</v>
+        <v>0.001364785198323819</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3.164734229085528E-05</v>
+        <v>3.234733729112554E-05</v>
       </c>
       <c r="E4">
-        <v>3.164734229085528E-05</v>
+        <v>3.234733729112554E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.1050933344842969</v>
+        <v>0.1050741683980147</v>
       </c>
       <c r="E5">
-        <v>0.1050933344842969</v>
+        <v>0.1050741683980147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9613915503189826</v>
+        <v>0.961422305147399</v>
       </c>
       <c r="E6">
-        <v>0.9613915503189826</v>
+        <v>0.961422305147399</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.8891057901077208</v>
+        <v>0.9999999743748171</v>
       </c>
       <c r="E7">
-        <v>0.1108942098922792</v>
+        <v>2.562518286453042E-08</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.8744378804078792</v>
+        <v>0.5265769948507761</v>
       </c>
       <c r="E8">
-        <v>0.1255621195921208</v>
+        <v>0.4734230051492239</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.8871941036443456</v>
+        <v>0.4808591486035605</v>
       </c>
       <c r="E9">
-        <v>0.1128058963556544</v>
+        <v>0.5191408513964395</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.8780367968839906</v>
+        <v>0.8921866206081822</v>
       </c>
       <c r="E10">
-        <v>0.1219632031160094</v>
+        <v>0.1078133793918178</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.8826940803246263</v>
+        <v>0.5069167267431223</v>
       </c>
       <c r="E11">
-        <v>0.1173059196753737</v>
+        <v>0.4930832732568777</v>
       </c>
       <c r="F11">
-        <v>0.5235294103622437</v>
+        <v>0.6775525212287903</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6314820328309069</v>
+        <v>0.6300775253661615</v>
       </c>
       <c r="E12">
-        <v>0.6314820328309069</v>
+        <v>0.6300775253661615</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5513523066609813</v>
+        <v>0.5521401895959576</v>
       </c>
       <c r="E13">
-        <v>0.5513523066609813</v>
+        <v>0.5521401895959576</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>3.820882590222877E-06</v>
+        <v>3.675055887364767E-06</v>
       </c>
       <c r="E14">
-        <v>3.820882590222877E-06</v>
+        <v>3.675055887364767E-06</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.03469432227993838</v>
+        <v>0.03464964306534804</v>
       </c>
       <c r="E15">
-        <v>0.03469432227993838</v>
+        <v>0.03464964306534804</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9990909929883913</v>
+        <v>0.9990986540763646</v>
       </c>
       <c r="E16">
-        <v>0.9990909929883913</v>
+        <v>0.9990986540763646</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9955063056753919</v>
+        <v>0.999999997471656</v>
       </c>
       <c r="E17">
-        <v>0.004493694324608111</v>
+        <v>2.528343978625003E-09</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9949441261124333</v>
+        <v>0.0342812851180604</v>
       </c>
       <c r="E18">
-        <v>0.005055873887566675</v>
+        <v>0.9657187148819396</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.995576234262407</v>
+        <v>0.7490431635262348</v>
       </c>
       <c r="E19">
-        <v>0.004423765737592955</v>
+        <v>0.2509568364737652</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9957197277134335</v>
+        <v>8.735485527413459E-05</v>
       </c>
       <c r="E20">
-        <v>0.004280272286566467</v>
+        <v>0.9999126451447259</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9953901956848192</v>
+        <v>0.1238257725780879</v>
       </c>
       <c r="E21">
-        <v>0.004609804315180765</v>
+        <v>0.8761742274219122</v>
       </c>
       <c r="F21">
-        <v>0.886117160320282</v>
+        <v>2.394115209579468</v>
       </c>
       <c r="G21">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
